--- a/data/raw/Model_Characteristics.xlsx
+++ b/data/raw/Model_Characteristics.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="16" documentId="13_ncr:1_{6FFB011F-ECEC-410A-8E36-6F8CB5E874EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7DCB3067-C418-A849-8A58-E76802E096C2}"/>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="28800" windowHeight="15440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15471,7 +15471,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="R27" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
-      <selection pane="bottomRight" activeCell="Z67" sqref="Z67"/>
+      <selection pane="bottomRight" activeCell="Y32" sqref="Y32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="16"/>
